--- a/焦煤/eta/主焦煤价格-临汾_合并数据.xlsx
+++ b/焦煤/eta/主焦煤价格-临汾_合并数据.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C140"/>
+  <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>1448.703515</v>
+        <v>1699.58005</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>1513.33038</v>
+        <v>1756.77451</v>
       </c>
     </row>
     <row r="4">
@@ -480,7 +480,7 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>1545.526738</v>
+        <v>1795.49608</v>
       </c>
     </row>
     <row r="5">
@@ -491,123 +491,123 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>1550.377512</v>
+        <v>1800.27917</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025/10/24</t>
+          <t>2025/10/29</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>1589.769621</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025/10/18</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="n">
-        <v>1550</v>
-      </c>
+          <t>2025/10/28</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1600</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/10/17</t>
+          <t>2025/10/27</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1550</v>
+        <v>1600</v>
       </c>
       <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025/10/10</t>
+          <t>2025/10/24</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1530</v>
+        <v>1600</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025/09/26</t>
+          <t>2025/10/17</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1590</v>
+        <v>1550</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025/09/19</t>
+          <t>2025/10/10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1500</v>
+        <v>1530</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025/09/12</t>
+          <t>2025/09/26</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1420</v>
+        <v>1590</v>
       </c>
       <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025/09/05</t>
+          <t>2025/09/19</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1420</v>
+        <v>1500</v>
       </c>
       <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/08/29</t>
+          <t>2025/09/12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1470</v>
+        <v>1420</v>
       </c>
       <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025/08/22</t>
+          <t>2025/09/05</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1470</v>
+        <v>1420</v>
       </c>
       <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025/08/15</t>
+          <t>2025/08/29</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -618,7 +618,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025/08/08</t>
+          <t>2025/08/22</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -629,84 +629,84 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025/08/01</t>
+          <t>2025/08/15</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1500</v>
+        <v>1470</v>
       </c>
       <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025/07/25</t>
+          <t>2025/08/08</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1450</v>
+        <v>1470</v>
       </c>
       <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/07/18</t>
+          <t>2025/08/01</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025/07/11</t>
+          <t>2025/07/25</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1200</v>
+        <v>1450</v>
       </c>
       <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025/07/04</t>
+          <t>2025/07/18</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1180</v>
+        <v>1300</v>
       </c>
       <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025/06/27</t>
+          <t>2025/07/11</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1170</v>
+        <v>1200</v>
       </c>
       <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025/06/20</t>
+          <t>2025/07/04</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1170</v>
+        <v>1180</v>
       </c>
       <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025/06/13</t>
+          <t>2025/06/27</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -717,117 +717,117 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/06/06</t>
+          <t>2025/06/20</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1180</v>
+        <v>1170</v>
       </c>
       <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025/05/30</t>
+          <t>2025/06/13</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1180</v>
+        <v>1170</v>
       </c>
       <c r="C27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025/05/23</t>
+          <t>2025/06/06</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1230</v>
+        <v>1180</v>
       </c>
       <c r="C28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025/05/16</t>
+          <t>2025/05/30</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1250</v>
+        <v>1180</v>
       </c>
       <c r="C29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025/05/09</t>
+          <t>2025/05/23</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1270</v>
+        <v>1230</v>
       </c>
       <c r="C30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025/04/25</t>
+          <t>2025/05/16</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1300</v>
+        <v>1250</v>
       </c>
       <c r="C31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/04/18</t>
+          <t>2025/05/09</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1330</v>
+        <v>1270</v>
       </c>
       <c r="C32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025/04/11</t>
+          <t>2025/04/25</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1320</v>
+        <v>1300</v>
       </c>
       <c r="C33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025/03/28</t>
+          <t>2025/04/18</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1280</v>
+        <v>1330</v>
       </c>
       <c r="C34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025/03/21</t>
+          <t>2025/04/11</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1270</v>
+        <v>1320</v>
       </c>
       <c r="C35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025/03/14</t>
+          <t>2025/03/28</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -838,62 +838,62 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025/03/07</t>
+          <t>2025/03/21</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1300</v>
+        <v>1270</v>
       </c>
       <c r="C37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/02/28</t>
+          <t>2025/03/14</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1320</v>
+        <v>1280</v>
       </c>
       <c r="C38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025/02/21</t>
+          <t>2025/03/07</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1340</v>
+        <v>1300</v>
       </c>
       <c r="C39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025/02/14</t>
+          <t>2025/02/28</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1400</v>
+        <v>1320</v>
       </c>
       <c r="C40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025/01/24</t>
+          <t>2025/02/21</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1400</v>
+        <v>1340</v>
       </c>
       <c r="C41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025/01/17</t>
+          <t>2025/02/14</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -904,216 +904,216 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025/01/10</t>
+          <t>2025/01/24</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1420</v>
+        <v>1400</v>
       </c>
       <c r="C43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/01/03</t>
+          <t>2025/01/17</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1420</v>
+        <v>1400</v>
       </c>
       <c r="C44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2024/12/27</t>
+          <t>2025/01/10</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1450</v>
+        <v>1420</v>
       </c>
       <c r="C45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2024/12/20</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1540</v>
+        <v>1420</v>
       </c>
       <c r="C46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/27</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1550</v>
+        <v>1450</v>
       </c>
       <c r="C47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2024/12/06</t>
+          <t>2024/12/20</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1560</v>
+        <v>1540</v>
       </c>
       <c r="C48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2024/11/29</t>
+          <t>2024/12/13</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1560</v>
+        <v>1550</v>
       </c>
       <c r="C49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2024/11/22</t>
+          <t>2024/12/06</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1580</v>
+        <v>1560</v>
       </c>
       <c r="C50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/29</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1630</v>
+        <v>1560</v>
       </c>
       <c r="C51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2024/11/08</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1650</v>
+        <v>1580</v>
       </c>
       <c r="C52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2024/11/01</t>
+          <t>2024/11/15</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1650</v>
+        <v>1630</v>
       </c>
       <c r="C53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2024/10/25</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1730</v>
+        <v>1650</v>
       </c>
       <c r="C54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/11/01</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1800</v>
+        <v>1650</v>
       </c>
       <c r="C55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/10/25</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1800</v>
+        <v>1730</v>
       </c>
       <c r="C56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2024/09/27</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1730</v>
+        <v>1800</v>
       </c>
       <c r="C57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2024/09/20</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1680</v>
+        <v>1800</v>
       </c>
       <c r="C58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/27</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1660</v>
+        <v>1730</v>
       </c>
       <c r="C59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2024/09/06</t>
+          <t>2024/09/20</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1700</v>
+        <v>1680</v>
       </c>
       <c r="C60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2024/08/30</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1680</v>
+        <v>1660</v>
       </c>
       <c r="C61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2024/08/23</t>
+          <t>2024/09/06</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1124,73 +1124,73 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/08/30</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1750</v>
+        <v>1680</v>
       </c>
       <c r="C63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2024/08/09</t>
+          <t>2024/08/23</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="C64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2024/08/02</t>
+          <t>2024/08/16</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1850</v>
+        <v>1750</v>
       </c>
       <c r="C65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2024/07/26</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="C66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2024/07/19</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1920</v>
+        <v>1850</v>
       </c>
       <c r="C67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/26</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1920</v>
+        <v>1900</v>
       </c>
       <c r="C68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2024/07/05</t>
+          <t>2024/07/19</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1201,29 +1201,29 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2024/06/28</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1900</v>
+        <v>1920</v>
       </c>
       <c r="C70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2024/06/21</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1900</v>
+        <v>1920</v>
       </c>
       <c r="C71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/28</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1234,183 +1234,183 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1950</v>
+        <v>1900</v>
       </c>
       <c r="C73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2024/05/31</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="C74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2024/05/24</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>2000</v>
+        <v>1950</v>
       </c>
       <c r="C75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/05/31</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1950</v>
+        <v>2000</v>
       </c>
       <c r="C76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/05/24</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>2050</v>
+        <v>2000</v>
       </c>
       <c r="C77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2024/04/26</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2030</v>
+        <v>1950</v>
       </c>
       <c r="C78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1750</v>
+        <v>2050</v>
       </c>
       <c r="C79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/26</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1750</v>
+        <v>2030</v>
       </c>
       <c r="C80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2024/03/29</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1850</v>
+        <v>1750</v>
       </c>
       <c r="C81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1850</v>
+        <v>1750</v>
       </c>
       <c r="C82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/03/29</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>2000</v>
+        <v>1850</v>
       </c>
       <c r="C83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>2100</v>
+        <v>1850</v>
       </c>
       <c r="C84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2350</v>
+        <v>2000</v>
       </c>
       <c r="C85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2024/02/23</t>
+          <t>2024/03/08</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>2450</v>
+        <v>2100</v>
       </c>
       <c r="C86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/03/01</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>2500</v>
+        <v>2350</v>
       </c>
       <c r="C87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2024/02/02</t>
+          <t>2024/02/23</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>2500</v>
+        <v>2450</v>
       </c>
       <c r="C88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2024/01/26</t>
+          <t>2024/02/09</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1421,7 +1421,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2024/01/19</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1432,139 +1432,139 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/01/26</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2450</v>
+        <v>2500</v>
       </c>
       <c r="C91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2024/01/05</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2550</v>
+        <v>2500</v>
       </c>
       <c r="C92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2023/12/29</t>
+          <t>2024/01/12</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>2650</v>
+        <v>2450</v>
       </c>
       <c r="C93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2023/12/22</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2650</v>
+        <v>2550</v>
       </c>
       <c r="C94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2023/12/29</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>2600</v>
+        <v>2650</v>
       </c>
       <c r="C95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2023/12/08</t>
+          <t>2023/12/22</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>2550</v>
+        <v>2650</v>
       </c>
       <c r="C96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2023/12/01</t>
+          <t>2023/12/15</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>2550</v>
+        <v>2600</v>
       </c>
       <c r="C97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2023/11/24</t>
+          <t>2023/12/08</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>2500</v>
+        <v>2550</v>
       </c>
       <c r="C98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2023/11/17</t>
+          <t>2023/12/01</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2450</v>
+        <v>2550</v>
       </c>
       <c r="C99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2023/11/10</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="C100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2023/11/03</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>2250</v>
+        <v>2450</v>
       </c>
       <c r="C101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2023/10/27</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>2250</v>
+        <v>2300</v>
       </c>
       <c r="C102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2023/10/20</t>
+          <t>2023/11/03</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1575,73 +1575,73 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/10/27</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>2350</v>
+        <v>2250</v>
       </c>
       <c r="C104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2023/09/22</t>
+          <t>2023/10/20</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>2150</v>
+        <v>2250</v>
       </c>
       <c r="C105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2023/09/15</t>
+          <t>2023/10/13</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>2100</v>
+        <v>2350</v>
       </c>
       <c r="C106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2023/09/08</t>
+          <t>2023/09/22</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>2100</v>
+        <v>2150</v>
       </c>
       <c r="C107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2023/09/01</t>
+          <t>2023/09/15</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1950</v>
+        <v>2100</v>
       </c>
       <c r="C108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2023/08/25</t>
+          <t>2023/09/08</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1950</v>
+        <v>2100</v>
       </c>
       <c r="C109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2023/08/18</t>
+          <t>2023/09/01</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1652,128 +1652,128 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2023/08/11</t>
+          <t>2023/08/25</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>2050</v>
+        <v>1950</v>
       </c>
       <c r="C111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2023/08/04</t>
+          <t>2023/08/18</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>2000</v>
+        <v>1950</v>
       </c>
       <c r="C112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2023/07/28</t>
+          <t>2023/08/11</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>2000</v>
+        <v>2050</v>
       </c>
       <c r="C113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2023/07/21</t>
+          <t>2023/08/04</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1850</v>
+        <v>2000</v>
       </c>
       <c r="C114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2023/07/14</t>
+          <t>2023/07/28</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1850</v>
+        <v>2000</v>
       </c>
       <c r="C115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2023/07/07</t>
+          <t>2023/07/21</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1700</v>
+        <v>1850</v>
       </c>
       <c r="C116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2023/06/30</t>
+          <t>2023/07/14</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1700</v>
+        <v>1850</v>
       </c>
       <c r="C117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2023/06/16</t>
+          <t>2023/07/07</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="C118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2023/06/09</t>
+          <t>2023/06/30</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="C119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2023/06/02</t>
+          <t>2023/06/16</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1650</v>
+        <v>1600</v>
       </c>
       <c r="C120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2023/05/26</t>
+          <t>2023/06/09</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1680</v>
+        <v>1600</v>
       </c>
       <c r="C121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2023/05/19</t>
+          <t>2023/06/02</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -1784,161 +1784,161 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2023/05/12</t>
+          <t>2023/05/26</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1650</v>
+        <v>1680</v>
       </c>
       <c r="C123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2023/05/05</t>
+          <t>2023/05/19</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1700</v>
+        <v>1650</v>
       </c>
       <c r="C124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2023/04/28</t>
+          <t>2023/05/12</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1800</v>
+        <v>1650</v>
       </c>
       <c r="C125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2023/04/21</t>
+          <t>2023/05/05</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1950</v>
+        <v>1700</v>
       </c>
       <c r="C126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2023/04/14</t>
+          <t>2023/04/28</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>2100</v>
+        <v>1800</v>
       </c>
       <c r="C127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2023/04/07</t>
+          <t>2023/04/21</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>2200</v>
+        <v>1950</v>
       </c>
       <c r="C128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2023/03/31</t>
+          <t>2023/04/14</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="C129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2023/03/24</t>
+          <t>2023/04/07</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>2450</v>
+        <v>2200</v>
       </c>
       <c r="C130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2023/03/17</t>
+          <t>2023/03/31</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="C131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2023/03/10</t>
+          <t>2023/03/24</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>2550</v>
+        <v>2450</v>
       </c>
       <c r="C132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2023/03/03</t>
+          <t>2023/03/17</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>2550</v>
+        <v>2500</v>
       </c>
       <c r="C133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2023/02/24</t>
+          <t>2023/03/10</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>2450</v>
+        <v>2550</v>
       </c>
       <c r="C134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2023/02/17</t>
+          <t>2023/03/03</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>2400</v>
+        <v>2550</v>
       </c>
       <c r="C135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2023/02/10</t>
+          <t>2023/02/24</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>2400</v>
+        <v>2450</v>
       </c>
       <c r="C136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2023/02/03</t>
+          <t>2023/02/17</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -1949,35 +1949,57 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2023/01/20</t>
+          <t>2023/02/10</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="C138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2023/01/13</t>
+          <t>2023/02/03</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="C139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
+          <t>2023/01/20</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>2500</v>
+      </c>
+      <c r="C140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2023/01/13</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>2500</v>
+      </c>
+      <c r="C141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
           <t>2023/01/06</t>
         </is>
       </c>
-      <c r="B140" t="n">
+      <c r="B142" t="n">
         <v>2550</v>
       </c>
-      <c r="C140" t="inlineStr"/>
+      <c r="C142" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
